--- a/natmiOut/OldD0/LR-pairs_lrc2p/Dlk1-Notch1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Dlk1-Notch1.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.87807348362012</v>
+        <v>4.224535333333333</v>
       </c>
       <c r="H2">
-        <v>3.87807348362012</v>
+        <v>12.673606</v>
       </c>
       <c r="I2">
-        <v>0.7020060799362215</v>
+        <v>0.7043225486309714</v>
       </c>
       <c r="J2">
-        <v>0.7020060799362215</v>
+        <v>0.7043225486309715</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.0810105801984</v>
+        <v>45.95651366666667</v>
       </c>
       <c r="N2">
-        <v>44.0810105801984</v>
+        <v>137.869541</v>
       </c>
       <c r="O2">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="P2">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="Q2">
-        <v>170.9493982622454</v>
+        <v>194.1449157816495</v>
       </c>
       <c r="R2">
-        <v>170.9493982622454</v>
+        <v>1747.304242034846</v>
       </c>
       <c r="S2">
-        <v>0.4292496735290733</v>
+        <v>0.435918526945802</v>
       </c>
       <c r="T2">
-        <v>0.4292496735290733</v>
+        <v>0.4359185269458021</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.87807348362012</v>
+        <v>4.224535333333333</v>
       </c>
       <c r="H3">
-        <v>3.87807348362012</v>
+        <v>12.673606</v>
       </c>
       <c r="I3">
-        <v>0.7020060799362215</v>
+        <v>0.7043225486309714</v>
       </c>
       <c r="J3">
-        <v>0.7020060799362215</v>
+        <v>0.7043225486309715</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.59776683289168</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N3">
-        <v>6.59776683289168</v>
+        <v>20.549744</v>
       </c>
       <c r="O3">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993263</v>
       </c>
       <c r="P3">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993261</v>
       </c>
       <c r="Q3">
-        <v>25.58662460574552</v>
+        <v>28.93770653965155</v>
       </c>
       <c r="R3">
-        <v>25.58662460574552</v>
+        <v>260.439358856864</v>
       </c>
       <c r="S3">
-        <v>0.06424737595085678</v>
+        <v>0.06497456993487295</v>
       </c>
       <c r="T3">
-        <v>0.06424737595085678</v>
+        <v>0.06497456993487295</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.87807348362012</v>
+        <v>4.224535333333333</v>
       </c>
       <c r="H4">
-        <v>3.87807348362012</v>
+        <v>12.673606</v>
       </c>
       <c r="I4">
-        <v>0.7020060799362215</v>
+        <v>0.7043225486309714</v>
       </c>
       <c r="J4">
-        <v>0.7020060799362215</v>
+        <v>0.7043225486309715</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.4124537406041</v>
+        <v>21.446458</v>
       </c>
       <c r="N4">
-        <v>21.4124537406041</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O4">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="P4">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="Q4">
-        <v>83.03906907067922</v>
+        <v>90.6013195958493</v>
       </c>
       <c r="R4">
-        <v>83.03906907067922</v>
+        <v>815.4118763626439</v>
       </c>
       <c r="S4">
-        <v>0.2085090304562915</v>
+        <v>0.2034294517502965</v>
       </c>
       <c r="T4">
-        <v>0.2085090304562915</v>
+        <v>0.2034294517502965</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.64619987306142</v>
+        <v>1.773477</v>
       </c>
       <c r="H5">
-        <v>1.64619987306142</v>
+        <v>5.320431</v>
       </c>
       <c r="I5">
-        <v>0.2979939200637785</v>
+        <v>0.2956774513690286</v>
       </c>
       <c r="J5">
-        <v>0.2979939200637785</v>
+        <v>0.2956774513690286</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>44.0810105801984</v>
+        <v>45.95651366666667</v>
       </c>
       <c r="N5">
-        <v>44.0810105801984</v>
+        <v>137.869541</v>
       </c>
       <c r="O5">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="P5">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="Q5">
-        <v>72.56615402154172</v>
+        <v>81.502819988019</v>
       </c>
       <c r="R5">
-        <v>72.56615402154172</v>
+        <v>733.525379892171</v>
       </c>
       <c r="S5">
-        <v>0.1822118020867381</v>
+        <v>0.1830003587169098</v>
       </c>
       <c r="T5">
-        <v>0.1822118020867381</v>
+        <v>0.1830003587169098</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.64619987306142</v>
+        <v>1.773477</v>
       </c>
       <c r="H6">
-        <v>1.64619987306142</v>
+        <v>5.320431</v>
       </c>
       <c r="I6">
-        <v>0.2979939200637785</v>
+        <v>0.2956774513690286</v>
       </c>
       <c r="J6">
-        <v>0.2979939200637785</v>
+        <v>0.2956774513690286</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.59776683289168</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N6">
-        <v>6.59776683289168</v>
+        <v>20.549744</v>
       </c>
       <c r="O6">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993263</v>
       </c>
       <c r="P6">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993261</v>
       </c>
       <c r="Q6">
-        <v>10.86124292279513</v>
+        <v>12.148166113296</v>
       </c>
       <c r="R6">
-        <v>10.86124292279513</v>
+        <v>109.333495019664</v>
       </c>
       <c r="S6">
-        <v>0.02727230997080042</v>
+        <v>0.02727658695505968</v>
       </c>
       <c r="T6">
-        <v>0.02727230997080042</v>
+        <v>0.02727658695505968</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.64619987306142</v>
+        <v>1.773477</v>
       </c>
       <c r="H7">
-        <v>1.64619987306142</v>
+        <v>5.320431</v>
       </c>
       <c r="I7">
-        <v>0.2979939200637785</v>
+        <v>0.2956774513690286</v>
       </c>
       <c r="J7">
-        <v>0.2979939200637785</v>
+        <v>0.2956774513690286</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.4124537406041</v>
+        <v>21.446458</v>
       </c>
       <c r="N7">
-        <v>21.4124537406041</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O7">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="P7">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="Q7">
-        <v>35.249178629716</v>
+        <v>38.03479999446599</v>
       </c>
       <c r="R7">
-        <v>35.249178629716</v>
+        <v>342.313199950194</v>
       </c>
       <c r="S7">
-        <v>0.08850980800623989</v>
+        <v>0.08540050569705908</v>
       </c>
       <c r="T7">
-        <v>0.08850980800623989</v>
+        <v>0.08540050569705906</v>
       </c>
     </row>
   </sheetData>
